--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +528,1859 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H2">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I2">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J2">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.1162150954713</v>
+        <v>0.3423605</v>
       </c>
       <c r="N2">
-        <v>1.1162150954713</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2024379518768077</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1895111415682583</v>
       </c>
       <c r="Q2">
-        <v>33.32367232702339</v>
+        <v>10.27123456279275</v>
       </c>
       <c r="R2">
-        <v>33.32367232702339</v>
+        <v>41.084938251171</v>
       </c>
       <c r="S2">
-        <v>0.6220961911012348</v>
+        <v>0.1235995612202723</v>
       </c>
       <c r="T2">
-        <v>0.6220961911012348</v>
+        <v>0.09769330585223382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9625987172418889</v>
+        <v>30.0012255</v>
       </c>
       <c r="H3">
-        <v>0.9625987172418889</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I3">
-        <v>0.02005847248421315</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J3">
-        <v>0.02005847248421315</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1162150954713</v>
+        <v>0.1032176666666667</v>
       </c>
       <c r="N3">
-        <v>1.1162150954713</v>
+        <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.06103266304817009</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08570307252156117</v>
       </c>
       <c r="Q3">
-        <v>1.074467219066706</v>
+        <v>3.0966564932505</v>
       </c>
       <c r="R3">
-        <v>1.074467219066706</v>
+        <v>18.579938959503</v>
       </c>
       <c r="S3">
-        <v>0.02005847248421315</v>
+        <v>0.0372638149266061</v>
       </c>
       <c r="T3">
-        <v>0.02005847248421315</v>
+        <v>0.04418007515040689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2311958494098</v>
+        <v>30.0012255</v>
       </c>
       <c r="H4">
-        <v>16.2311958494098</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I4">
-        <v>0.3382229682002047</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J4">
-        <v>0.3382229682002047</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.1162150954713</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>1.1162150954713</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.007877503024502313</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01106171972972726</v>
       </c>
       <c r="Q4">
-        <v>18.11750582466233</v>
+        <v>0.3996863265195</v>
       </c>
       <c r="R4">
-        <v>18.11750582466233</v>
+        <v>2.398117959117001</v>
       </c>
       <c r="S4">
-        <v>0.3382229682002047</v>
+        <v>0.004809651097104391</v>
       </c>
       <c r="T4">
-        <v>0.3382229682002047</v>
+        <v>0.005702334753857745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>30.0012255</v>
+      </c>
+      <c r="H5">
+        <v>60.00245100000001</v>
+      </c>
+      <c r="I5">
+        <v>0.6105552840975592</v>
+      </c>
+      <c r="J5">
+        <v>0.5155016483136245</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.342529</v>
+      </c>
+      <c r="O5">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P5">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q5">
+        <v>3.4254299230965</v>
+      </c>
+      <c r="R5">
+        <v>20.552579538579</v>
+      </c>
+      <c r="S5">
+        <v>0.0412201311241792</v>
+      </c>
+      <c r="T5">
+        <v>0.04887069384502564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>30.0012255</v>
+      </c>
+      <c r="H6">
+        <v>60.00245100000001</v>
+      </c>
+      <c r="I6">
+        <v>0.6105552840975592</v>
+      </c>
+      <c r="J6">
+        <v>0.5155016483136245</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.1181105</v>
+      </c>
+      <c r="N6">
+        <v>2.236221</v>
+      </c>
+      <c r="O6">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P6">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q6">
+        <v>33.54468524441776</v>
+      </c>
+      <c r="R6">
+        <v>134.178740977671</v>
+      </c>
+      <c r="S6">
+        <v>0.4036621257293972</v>
+      </c>
+      <c r="T6">
+        <v>0.3190552387121005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.040222666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.120668</v>
+      </c>
+      <c r="I7">
+        <v>0.02116958341489708</v>
+      </c>
+      <c r="J7">
+        <v>0.02681072974568292</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.3423605</v>
+      </c>
+      <c r="N7">
+        <v>0.684721</v>
+      </c>
+      <c r="O7">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P7">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q7">
+        <v>0.3561311522713334</v>
+      </c>
+      <c r="R7">
+        <v>2.136786913628</v>
+      </c>
+      <c r="S7">
+        <v>0.004285527108597</v>
+      </c>
+      <c r="T7">
+        <v>0.005080932000382431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.040222666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.120668</v>
+      </c>
+      <c r="I8">
+        <v>0.02116958341489708</v>
+      </c>
+      <c r="J8">
+        <v>0.02681072974568292</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.309653</v>
+      </c>
+      <c r="O8">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P8">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q8">
+        <v>0.1073693564671111</v>
+      </c>
+      <c r="R8">
+        <v>0.9663242082039999</v>
+      </c>
+      <c r="S8">
+        <v>0.001292036051431543</v>
+      </c>
+      <c r="T8">
+        <v>0.002297761915750241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.040222666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.120668</v>
+      </c>
+      <c r="I9">
+        <v>0.02116958341489708</v>
+      </c>
+      <c r="J9">
+        <v>0.02681072974568292</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.039967</v>
+      </c>
+      <c r="O9">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P9">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q9">
+        <v>0.01385819310622222</v>
+      </c>
+      <c r="R9">
+        <v>0.124723737956</v>
+      </c>
+      <c r="S9">
+        <v>0.0001667634573783057</v>
+      </c>
+      <c r="T9">
+        <v>0.0002965727781962064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.040222666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.120668</v>
+      </c>
+      <c r="I10">
+        <v>0.02116958341489708</v>
+      </c>
+      <c r="J10">
+        <v>0.02681072974568292</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.342529</v>
+      </c>
+      <c r="O10">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P10">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q10">
+        <v>0.1187688099302222</v>
+      </c>
+      <c r="R10">
+        <v>1.068919289372</v>
+      </c>
+      <c r="S10">
+        <v>0.001429212107296862</v>
+      </c>
+      <c r="T10">
+        <v>0.002541716344553466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.040222666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.120668</v>
+      </c>
+      <c r="I11">
+        <v>0.02116958341489708</v>
+      </c>
+      <c r="J11">
+        <v>0.02681072974568292</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.1181105</v>
+      </c>
+      <c r="N11">
+        <v>2.236221</v>
+      </c>
+      <c r="O11">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P11">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q11">
+        <v>1.163083885938</v>
+      </c>
+      <c r="R11">
+        <v>6.978503315628001</v>
+      </c>
+      <c r="S11">
+        <v>0.01399604469019337</v>
+      </c>
+      <c r="T11">
+        <v>0.01659374670680058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.315656</v>
+      </c>
+      <c r="I12">
+        <v>0.002141306291605756</v>
+      </c>
+      <c r="J12">
+        <v>0.002711909023517813</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.3423605</v>
+      </c>
+      <c r="N12">
+        <v>0.684721</v>
+      </c>
+      <c r="O12">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P12">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q12">
+        <v>0.03602271532933334</v>
+      </c>
+      <c r="R12">
+        <v>0.216136291976</v>
+      </c>
+      <c r="S12">
+        <v>0.0004334816600135915</v>
+      </c>
+      <c r="T12">
+        <v>0.0005139369748761216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.315656</v>
+      </c>
+      <c r="I13">
+        <v>0.002141306291605756</v>
+      </c>
+      <c r="J13">
+        <v>0.002711909023517813</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.309653</v>
+      </c>
+      <c r="O13">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P13">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q13">
+        <v>0.01086042526311111</v>
+      </c>
+      <c r="R13">
+        <v>0.09774382736799998</v>
+      </c>
+      <c r="S13">
+        <v>0.0001306896253785008</v>
+      </c>
+      <c r="T13">
+        <v>0.0002324189357144233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.315656</v>
+      </c>
+      <c r="I14">
+        <v>0.002141306291605756</v>
+      </c>
+      <c r="J14">
+        <v>0.002711909023517813</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.039967</v>
+      </c>
+      <c r="O14">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P14">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q14">
+        <v>0.001401758150222222</v>
+      </c>
+      <c r="R14">
+        <v>0.012615823352</v>
+      </c>
+      <c r="S14">
+        <v>1.686814678851017E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.999837755067239E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.315656</v>
+      </c>
+      <c r="I15">
+        <v>0.002141306291605756</v>
+      </c>
+      <c r="J15">
+        <v>0.002711909023517813</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.342529</v>
+      </c>
+      <c r="O15">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P15">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q15">
+        <v>0.01201348155822222</v>
+      </c>
+      <c r="R15">
+        <v>0.108121334024</v>
+      </c>
+      <c r="S15">
+        <v>0.0001445650024100283</v>
+      </c>
+      <c r="T15">
+        <v>0.0002570949599433098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.315656</v>
+      </c>
+      <c r="I16">
+        <v>0.002141306291605756</v>
+      </c>
+      <c r="J16">
+        <v>0.002711909023517813</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.1181105</v>
+      </c>
+      <c r="N16">
+        <v>2.236221</v>
+      </c>
+      <c r="O16">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P16">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q16">
+        <v>0.117646095996</v>
+      </c>
+      <c r="R16">
+        <v>0.705876575976</v>
+      </c>
+      <c r="S16">
+        <v>0.001415701857015125</v>
+      </c>
+      <c r="T16">
+        <v>0.001678459775433286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.142059</v>
+      </c>
+      <c r="H17">
+        <v>0.426177</v>
+      </c>
+      <c r="I17">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J17">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3423605</v>
+      </c>
+      <c r="N17">
+        <v>0.684721</v>
+      </c>
+      <c r="O17">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P17">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q17">
+        <v>0.0486353902695</v>
+      </c>
+      <c r="R17">
+        <v>0.291812341617</v>
+      </c>
+      <c r="S17">
+        <v>0.0005852570944940453</v>
+      </c>
+      <c r="T17">
+        <v>0.0006938823217102822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.142059</v>
+      </c>
+      <c r="H18">
+        <v>0.426177</v>
+      </c>
+      <c r="I18">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J18">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.309653</v>
+      </c>
+      <c r="O18">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P18">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q18">
+        <v>0.014662998509</v>
+      </c>
+      <c r="R18">
+        <v>0.131966986581</v>
+      </c>
+      <c r="S18">
+        <v>0.0001764481349156465</v>
+      </c>
+      <c r="T18">
+        <v>0.0003137960462210944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.142059</v>
+      </c>
+      <c r="H19">
+        <v>0.426177</v>
+      </c>
+      <c r="I19">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J19">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.039967</v>
+      </c>
+      <c r="O19">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P19">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q19">
+        <v>0.001892557351</v>
+      </c>
+      <c r="R19">
+        <v>0.017033016159</v>
+      </c>
+      <c r="S19">
+        <v>2.277421051361894E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.05017441436656E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.142059</v>
+      </c>
+      <c r="H20">
+        <v>0.426177</v>
+      </c>
+      <c r="I20">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J20">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.342529</v>
+      </c>
+      <c r="O20">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P20">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q20">
+        <v>0.016219775737</v>
+      </c>
+      <c r="R20">
+        <v>0.145977981633</v>
+      </c>
+      <c r="S20">
+        <v>0.0001951817137393195</v>
+      </c>
+      <c r="T20">
+        <v>0.0003471119153247838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="H5">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="I5">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="J5">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="N5">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1.051106529840012</v>
-      </c>
-      <c r="R5">
-        <v>1.051106529840012</v>
-      </c>
-      <c r="S5">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="T5">
-        <v>0.01962236821434728</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.142059</v>
+      </c>
+      <c r="H21">
+        <v>0.426177</v>
+      </c>
+      <c r="I21">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J21">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.1181105</v>
+      </c>
+      <c r="N21">
+        <v>2.236221</v>
+      </c>
+      <c r="O21">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P21">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q21">
+        <v>0.1588376595195</v>
+      </c>
+      <c r="R21">
+        <v>0.953025957117</v>
+      </c>
+      <c r="S21">
+        <v>0.001911383183963349</v>
+      </c>
+      <c r="T21">
+        <v>0.002266140835956965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.833521</v>
+      </c>
+      <c r="H22">
+        <v>50.500563</v>
+      </c>
+      <c r="I22">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J22">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3423605</v>
+      </c>
+      <c r="N22">
+        <v>0.684721</v>
+      </c>
+      <c r="O22">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P22">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q22">
+        <v>5.763132666320501</v>
+      </c>
+      <c r="R22">
+        <v>34.578795997923</v>
+      </c>
+      <c r="S22">
+        <v>0.06935102732360848</v>
+      </c>
+      <c r="T22">
+        <v>0.08222275698152734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.833521</v>
+      </c>
+      <c r="H23">
+        <v>50.500563</v>
+      </c>
+      <c r="I23">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J23">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.309653</v>
+      </c>
+      <c r="O23">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P23">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q23">
+        <v>1.737516759404333</v>
+      </c>
+      <c r="R23">
+        <v>15.637650834639</v>
+      </c>
+      <c r="S23">
+        <v>0.02090851959054596</v>
+      </c>
+      <c r="T23">
+        <v>0.03718379218338693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.833521</v>
+      </c>
+      <c r="H24">
+        <v>50.500563</v>
+      </c>
+      <c r="I24">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J24">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.039967</v>
+      </c>
+      <c r="O24">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P24">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q24">
+        <v>0.2242617779356667</v>
+      </c>
+      <c r="R24">
+        <v>2.018356001421</v>
+      </c>
+      <c r="S24">
+        <v>0.002698668517583717</v>
+      </c>
+      <c r="T24">
+        <v>0.004799322539078987</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.833521</v>
+      </c>
+      <c r="H25">
+        <v>50.500563</v>
+      </c>
+      <c r="I25">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J25">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.342529</v>
+      </c>
+      <c r="O25">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P25">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q25">
+        <v>1.921989704869667</v>
+      </c>
+      <c r="R25">
+        <v>17.297907343827</v>
+      </c>
+      <c r="S25">
+        <v>0.02312838663546008</v>
+      </c>
+      <c r="T25">
+        <v>0.04113161232987681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.833521</v>
+      </c>
+      <c r="H26">
+        <v>50.500563</v>
+      </c>
+      <c r="I26">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J26">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.1181105</v>
+      </c>
+      <c r="N26">
+        <v>2.236221</v>
+      </c>
+      <c r="O26">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P26">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q26">
+        <v>18.8217365820705</v>
+      </c>
+      <c r="R26">
+        <v>112.930419492423</v>
+      </c>
+      <c r="S26">
+        <v>0.2264925767905863</v>
+      </c>
+      <c r="T26">
+        <v>0.268530183593008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.01536</v>
+      </c>
+      <c r="H27">
+        <v>2.03072</v>
+      </c>
+      <c r="I27">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J27">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.3423605</v>
+      </c>
+      <c r="N27">
+        <v>0.684721</v>
+      </c>
+      <c r="O27">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P27">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q27">
+        <v>0.34761915728</v>
+      </c>
+      <c r="R27">
+        <v>1.39047662912</v>
+      </c>
+      <c r="S27">
+        <v>0.004183097469822214</v>
+      </c>
+      <c r="T27">
+        <v>0.003306327437528314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.01536</v>
+      </c>
+      <c r="H28">
+        <v>2.03072</v>
+      </c>
+      <c r="I28">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J28">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.309653</v>
+      </c>
+      <c r="O28">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P28">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q28">
+        <v>0.1048030900266667</v>
+      </c>
+      <c r="R28">
+        <v>0.6288185401599999</v>
+      </c>
+      <c r="S28">
+        <v>0.001261154719292342</v>
+      </c>
+      <c r="T28">
+        <v>0.001495228290081588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.01536</v>
+      </c>
+      <c r="H29">
+        <v>2.03072</v>
+      </c>
+      <c r="I29">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J29">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.039967</v>
+      </c>
+      <c r="O29">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P29">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q29">
+        <v>0.01352696437333333</v>
+      </c>
+      <c r="R29">
+        <v>0.08116178624000001</v>
+      </c>
+      <c r="S29">
+        <v>0.0001627775951337693</v>
+      </c>
+      <c r="T29">
+        <v>0.0001929895368999843</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.01536</v>
+      </c>
+      <c r="H30">
+        <v>2.03072</v>
+      </c>
+      <c r="I30">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J30">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.342529</v>
+      </c>
+      <c r="O30">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P30">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q30">
+        <v>0.1159300818133333</v>
+      </c>
+      <c r="R30">
+        <v>0.6955804908800001</v>
+      </c>
+      <c r="S30">
+        <v>0.001395052090063674</v>
+      </c>
+      <c r="T30">
+        <v>0.001653977358441082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.01536</v>
+      </c>
+      <c r="H31">
+        <v>2.03072</v>
+      </c>
+      <c r="I31">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J31">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.1181105</v>
+      </c>
+      <c r="N31">
+        <v>2.236221</v>
+      </c>
+      <c r="O31">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P31">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q31">
+        <v>1.13528467728</v>
+      </c>
+      <c r="R31">
+        <v>4.54113870912</v>
+      </c>
+      <c r="S31">
+        <v>0.01366152112621535</v>
+      </c>
+      <c r="T31">
+        <v>0.01079808980398878</v>
       </c>
     </row>
   </sheetData>
